--- a/patient_data/patient_31.xlsx
+++ b/patient_data/patient_31.xlsx
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -720,16 +720,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -1235,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1312,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1466,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1543,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1650,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1786,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1863,16 +1863,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1940,16 +1940,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2260,13 +2260,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
